--- a/pace_report.xlsx
+++ b/pace_report.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
-  <si>
-    <t>report_data</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+  <si>
+    <t>report_date</t>
   </si>
   <si>
     <t>sold</t>
@@ -29,22 +29,100 @@
     <t>earned</t>
   </si>
   <si>
-    <t>2018-02-08</t>
-  </si>
-  <si>
-    <t>65</t>
+    <t>sold_difference</t>
+  </si>
+  <si>
+    <t>%occupancy_variance</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>2017-08-02</t>
+  </si>
+  <si>
+    <t>2018-08-02</t>
+  </si>
+  <si>
+    <t>45</t>
   </si>
   <si>
     <t>90</t>
   </si>
   <si>
-    <t>2018-03-08</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>80</t>
+    <t>95</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>5.555555555555555555555555556</t>
+  </si>
+  <si>
+    <t>2017-08-03</t>
+  </si>
+  <si>
+    <t>2018-08-03</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>3.092783505154639175257731959</t>
+  </si>
+  <si>
+    <t>2017-08-04</t>
+  </si>
+  <si>
+    <t>2018-08-04</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>11.11111111111111111111111111</t>
+  </si>
+  <si>
+    <t>2017-08-05</t>
+  </si>
+  <si>
+    <t>2018-08-05</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2.222222222222222222222222222</t>
   </si>
 </sst>
 </file>
@@ -393,7 +471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -401,49 +479,214 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s"/>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="n"/>
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="I1" s="1" t="n"/>
+      <c r="J1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>2017</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>2018</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>2017</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>2018</v>
+      </c>
+      <c r="J2" s="1" t="s"/>
+      <c r="K2" s="1" t="s"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2200</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2300</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3500</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1500</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2000</v>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1300</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1900</v>
+      </c>
+      <c r="J7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+  </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/pace_report.xlsx
+++ b/pace_report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>report_date</t>
   </si>
@@ -47,19 +47,10 @@
     <t>2018-08-02</t>
   </si>
   <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>5.555555555555555555555555556</t>
+    <t>3400</t>
+  </si>
+  <si>
+    <t>3300</t>
   </si>
   <si>
     <t>2017-08-03</t>
@@ -68,22 +59,10 @@
     <t>2018-08-03</t>
   </si>
   <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>3.092783505154639175257731959</t>
+    <t>3600</t>
+  </si>
+  <si>
+    <t>6600</t>
   </si>
   <si>
     <t>2017-08-04</t>
@@ -92,16 +71,10 @@
     <t>2018-08-04</t>
   </si>
   <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>11.11111111111111111111111111</t>
+    <t>1600</t>
+  </si>
+  <si>
+    <t>4600</t>
   </si>
   <si>
     <t>2017-08-05</t>
@@ -110,19 +83,10 @@
     <t>2018-08-05</t>
   </si>
   <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>2.222222222222222222222222222</t>
+    <t>2600</t>
+  </si>
+  <si>
+    <t>2900</t>
   </si>
 </sst>
 </file>
@@ -550,29 +514,29 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="n">
+        <v>34</v>
+      </c>
+      <c r="E4" t="n">
+        <v>39</v>
+      </c>
+      <c r="F4" t="n">
+        <v>90</v>
+      </c>
+      <c r="G4" t="n">
+        <v>95</v>
+      </c>
+      <c r="H4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2200</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2000</v>
-      </c>
-      <c r="J4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" t="s">
-        <v>14</v>
+      <c r="J4" t="n">
+        <v>5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5.555555555555555</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -580,34 +544,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>40</v>
+      </c>
+      <c r="E5" t="n">
+        <v>49</v>
+      </c>
+      <c r="F5" t="n">
+        <v>95</v>
+      </c>
+      <c r="G5" t="n">
+        <v>95</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2300</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3500</v>
-      </c>
-      <c r="J5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" t="s">
-        <v>22</v>
+      <c r="J5" t="n">
+        <v>9</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -615,34 +579,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="n">
+        <v>22</v>
+      </c>
+      <c r="E6" t="n">
+        <v>45</v>
+      </c>
+      <c r="F6" t="n">
+        <v>88</v>
+      </c>
+      <c r="G6" t="n">
+        <v>92</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" t="n">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1500</v>
-      </c>
-      <c r="J6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" t="s">
-        <v>28</v>
+      <c r="K6" t="n">
+        <v>4.545454545454546</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -650,34 +614,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="n">
+        <v>31</v>
+      </c>
+      <c r="E7" t="n">
         <v>30</v>
       </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1300</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1900</v>
-      </c>
-      <c r="J7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" t="s">
-        <v>35</v>
+      <c r="F7" t="n">
+        <v>90</v>
+      </c>
+      <c r="G7" t="n">
+        <v>92</v>
+      </c>
+      <c r="H7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.222222222222222</v>
       </c>
     </row>
   </sheetData>
